--- a/stock portfolio performance data set.xlsx
+++ b/stock portfolio performance data set.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardocartesegna/EPFL/STAT MACHINE LEARNING/PROJECT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardocartesegna/EPFL/STAT MACHINE LEARNING/StatML-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F81ADD-ED37-3341-88D4-BB30C3839375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC56D61E-0E52-0545-B02E-F7581C1EA2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4th period" sheetId="8" r:id="rId1"/>
@@ -16098,7 +16098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -19924,7 +19924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
